--- a/deployment/Omaha_Cal_Info_CP04OSSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSSM_00002.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12375" yWindow="8655" windowWidth="20730" windowHeight="11760" tabRatio="766" activeTab="1"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="235">
   <si>
     <t>Ref Des</t>
   </si>
@@ -367,9 +372,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>CP04OSSM-SBD11-01-MOPAKO000</t>
   </si>
   <si>
     <t>CP04OSSM-SBD11-06-METBKA000</t>
@@ -785,6 +787,45 @@
   <si>
     <t>N00754</t>
   </si>
+  <si>
+    <t>OL000539</t>
+  </si>
+  <si>
+    <t>OL000540</t>
+  </si>
+  <si>
+    <t>OL000541</t>
+  </si>
+  <si>
+    <t>OL000542</t>
+  </si>
+  <si>
+    <t>OL000543</t>
+  </si>
+  <si>
+    <t>OL000544</t>
+  </si>
+  <si>
+    <t>OL000545</t>
+  </si>
+  <si>
+    <t>OL000546</t>
+  </si>
+  <si>
+    <t>OL000547</t>
+  </si>
+  <si>
+    <t>OL000548</t>
+  </si>
+  <si>
+    <t>OL000549</t>
+  </si>
+  <si>
+    <t>OL000550</t>
+  </si>
+  <si>
+    <t>CP04OSSM-SBD11-01-MOPAK0000</t>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +839,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,7 +1669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1663,7 +1704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1875,10 +1916,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="12" style="15" customWidth="1"/>
@@ -1897,9 +1938,9 @@
     <col min="15" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="41.45">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1935,15 +1976,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D2" s="19">
         <v>2</v>
@@ -1958,16 +1999,16 @@
         <v>42300</v>
       </c>
       <c r="H2" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>173</v>
       </c>
       <c r="J2" s="3">
         <v>442</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="42">
@@ -1979,22 +2020,22 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="5" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="10" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="11" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="12" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="13" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="14" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="15" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="16" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="17" customFormat="1" ht="14.45"/>
-    <row r="18" customFormat="1" ht="14.45"/>
-    <row r="19" customFormat="1" ht="14.45"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2010,31 +2051,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E15"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28" style="6" customWidth="1"/>
-    <col min="9" max="9" width="64.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9 1027:1027" s="2" customFormat="1" ht="41.45">
+    <row r="1" spans="1:17 1027:1027" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2043,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -2058,7 +2099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9 1027:1027" ht="13.9">
+    <row r="2" spans="1:17 1027:1027" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2066,70 +2107,77 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:9 1027:1027" ht="14.45">
+    <row r="3" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
       <c r="F3" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9 1027:1027" customFormat="1" ht="14.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17 1027:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6"/>
       <c r="AMM4" s="24"/>
     </row>
-    <row r="5" spans="1:9 1027:1027" s="20" customFormat="1" ht="14.45">
+    <row r="5" spans="1:17 1027:1027" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
       <c r="F5" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9 1027:1027" ht="15">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="7" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>5</v>
@@ -2139,24 +2187,24 @@
       </c>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9 1027:1027" ht="15">
+    <row r="8" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
@@ -2166,24 +2214,24 @@
       </c>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:9 1027:1027" ht="15">
+    <row r="9" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>35</v>
@@ -2193,24 +2241,24 @@
       </c>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9 1027:1027" ht="15">
+    <row r="10" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>36</v>
@@ -2220,24 +2268,24 @@
       </c>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9 1027:1027" ht="15">
+    <row r="11" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>37</v>
@@ -2247,24 +2295,24 @@
       </c>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:9 1027:1027" ht="15">
+    <row r="12" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>38</v>
@@ -2274,24 +2322,24 @@
       </c>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:9 1027:1027" ht="15">
+    <row r="13" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>39</v>
@@ -2303,24 +2351,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:9 1027:1027" ht="15">
+    <row r="14" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>40</v>
@@ -2332,24 +2380,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:9 1027:1027" ht="15">
+    <row r="15" spans="1:17 1027:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>41</v>
@@ -2361,33 +2409,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:9 1027:1027" ht="13.9">
+    <row r="16" spans="1:17 1027:1027" x14ac:dyDescent="0.25">
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:1027" s="20" customFormat="1" ht="14.45">
+    <row r="17" spans="1:1027" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
       <c r="F17" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1027" customFormat="1" ht="14.45">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2404,7 +2455,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -3416,51 +3467,51 @@
       <c r="AML18" s="24"/>
       <c r="AMM18" s="24"/>
     </row>
-    <row r="19" spans="1:1027" ht="14.45">
+    <row r="19" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1027" ht="13.9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:1027" ht="14.45">
+    <row r="21" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>5</v>
@@ -3469,24 +3520,24 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:1027" ht="14.45">
+    <row r="22" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>6</v>
@@ -3495,27 +3546,27 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="13.9">
+    <row r="23" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:1027" ht="14.45">
+    <row r="24" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>5</v>
@@ -3524,24 +3575,24 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="14.45">
+    <row r="25" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>6</v>
@@ -3550,27 +3601,27 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="13.9">
+    <row r="26" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:1027" ht="14.45">
+    <row r="27" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>14</v>
@@ -3579,24 +3630,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="28" spans="1:1027" ht="14.45">
+    <row r="28" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>16</v>
@@ -3605,24 +3656,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:1027" ht="14.45">
+    <row r="29" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>15</v>
@@ -3631,24 +3682,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="30" spans="1:1027" ht="14.45">
+    <row r="30" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>17</v>
@@ -3657,24 +3708,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="31" spans="1:1027" ht="14.45">
+    <row r="31" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>19</v>
@@ -3683,24 +3734,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" ht="14.45">
+    <row r="32" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>18</v>
@@ -3709,24 +3760,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>100</v>
@@ -3738,27 +3789,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H34" s="34"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>14</v>
@@ -3767,24 +3818,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>16</v>
@@ -3793,24 +3844,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>15</v>
@@ -3819,24 +3870,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>17</v>
@@ -3845,24 +3896,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -3871,24 +3922,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="6">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>18</v>
@@ -3897,24 +3948,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="6">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>100</v>
@@ -3926,79 +3977,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="6">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>102</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>42</v>
@@ -4007,209 +4058,209 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>103</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="6">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" ht="15">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
       </c>
       <c r="E52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
         <v>211</v>
-      </c>
-      <c r="F52" t="s">
-        <v>212</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" t="s">
         <v>211</v>
-      </c>
-      <c r="F53" t="s">
-        <v>212</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>102</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
       </c>
       <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
         <v>211</v>
-      </c>
-      <c r="F54" t="s">
-        <v>212</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>42</v>
@@ -4218,154 +4269,154 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
       </c>
       <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s">
         <v>211</v>
-      </c>
-      <c r="F55" t="s">
-        <v>212</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
       <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
         <v>211</v>
-      </c>
-      <c r="F56" t="s">
-        <v>212</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>103</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" t="s">
         <v>211</v>
-      </c>
-      <c r="F57" t="s">
-        <v>212</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" t="s">
         <v>211</v>
-      </c>
-      <c r="F58" t="s">
-        <v>212</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" t="s">
         <v>211</v>
-      </c>
-      <c r="F59" t="s">
-        <v>212</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" ht="15">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" s="6">
         <v>994</v>
@@ -4377,21 +4428,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="6">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F62" s="6">
         <v>994</v>
@@ -4403,21 +4454,21 @@
         <v>1.9479999999999998E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63" s="6">
         <v>994</v>
@@ -4429,21 +4480,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F64" s="6">
         <v>994</v>
@@ -4455,21 +4506,21 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="6">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F65" s="6">
         <v>994</v>
@@ -4481,21 +4532,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="6">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F66" s="6">
         <v>994</v>
@@ -4507,21 +4558,21 @@
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F67" s="6">
         <v>994</v>
@@ -4536,21 +4587,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F68" s="6">
         <v>994</v>
@@ -4565,21 +4616,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" s="6">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="6">
         <v>994</v>
@@ -4594,21 +4645,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F70" s="6">
         <v>994</v>
@@ -4623,27 +4674,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="6">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>5</v>
@@ -4652,24 +4703,24 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>6</v>
@@ -4678,24 +4729,24 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>76</v>
@@ -4704,24 +4755,24 @@
         <v>1.2348249999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" s="6">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>77</v>
@@ -4730,24 +4781,24 @@
         <v>2.7807549999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="6">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>78</v>
@@ -4756,24 +4807,24 @@
         <v>-1.417839E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>79</v>
@@ -4782,24 +4833,24 @@
         <v>1.9557449999999999E-7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>80</v>
@@ -4808,24 +4859,24 @@
         <v>-62.007989999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D79" s="6">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>81</v>
@@ -4834,24 +4885,24 @@
         <v>52.563369999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>82</v>
@@ -4860,24 +4911,24 @@
         <v>-0.2229575</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15">
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" s="6">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>83</v>
@@ -4886,24 +4937,24 @@
         <v>525064.19999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15">
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>84</v>
@@ -4912,24 +4963,24 @@
         <v>2.7503639999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15">
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D83" s="6">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>85</v>
@@ -4938,24 +4989,24 @@
         <v>-0.25045070000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D84" s="6">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>86</v>
@@ -4964,24 +5015,24 @@
         <v>25.257000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="6">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>87</v>
@@ -4990,24 +5041,24 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="6">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>88</v>
@@ -5016,24 +5067,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D87" s="6">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>89</v>
@@ -5042,24 +5093,24 @@
         <v>-2.824132E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15">
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" s="6">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>90</v>
@@ -5068,24 +5119,24 @@
         <v>4.8352109999999997E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="6">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>91</v>
@@ -5094,24 +5145,24 @@
         <v>-5.498281E-12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="6">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>92</v>
@@ -5120,24 +5171,24 @@
         <v>-0.99114170000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="6">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>93</v>
@@ -5146,24 +5197,24 @@
         <v>0.13530790000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15">
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" s="6">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>94</v>
@@ -5172,24 +5223,24 @@
         <v>-3.2446530000000001E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" s="6">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>95</v>
@@ -5198,24 +5249,24 @@
         <v>4.1240859999999997E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="6">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>96</v>
@@ -5224,24 +5275,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15">
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D95" s="6">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>97</v>
@@ -5250,27 +5301,27 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" ht="15">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D97" s="6">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>5</v>
@@ -5279,24 +5330,24 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15">
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="6">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>6</v>
@@ -5305,24 +5356,24 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D99" s="6">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>76</v>
@@ -5331,24 +5382,24 @@
         <v>1.2423359999999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100" s="6">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>77</v>
@@ -5357,24 +5408,24 @@
         <v>2.7466730000000003E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="6">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>78</v>
@@ -5383,24 +5434,24 @@
         <v>-1.020928E-6</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D102" s="6">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>79</v>
@@ -5409,24 +5460,24 @@
         <v>1.792033E-7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D103" s="6">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>80</v>
@@ -5435,24 +5486,24 @@
         <v>-64.12285</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" s="6">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>81</v>
@@ -5461,24 +5512,24 @@
         <v>51.84487</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="6">
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>82</v>
@@ -5487,24 +5538,24 @@
         <v>-0.32500489999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" s="6">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>83</v>
@@ -5513,24 +5564,24 @@
         <v>524546</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D107" s="6">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>84</v>
@@ -5539,24 +5590,24 @@
         <v>54.827199999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" s="6">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>85</v>
@@ -5565,24 +5616,24 @@
         <v>-0.89864069999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15">
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="6">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>86</v>
@@ -5591,24 +5642,24 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D110" s="6">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>87</v>
@@ -5617,24 +5668,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="6">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>88</v>
@@ -5643,24 +5694,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="6">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>89</v>
@@ -5669,24 +5720,24 @@
         <v>2.0780409999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D113" s="6">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>90</v>
@@ -5695,24 +5746,24 @@
         <v>2.651886E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D114" s="6">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>91</v>
@@ -5721,24 +5772,24 @@
         <v>2.0655380000000002E-11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D115" s="6">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>92</v>
@@ -5747,24 +5798,24 @@
         <v>-0.97833079999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15">
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D116" s="6">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>93</v>
@@ -5773,24 +5824,24 @@
         <v>0.15585450000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15">
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D117" s="6">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>94</v>
@@ -5799,24 +5850,24 @@
         <v>-1.6055339999999999E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D118" s="6">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>95</v>
@@ -5825,24 +5876,24 @@
         <v>3.5184030000000003E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15">
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D119" s="6">
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>96</v>
@@ -5851,24 +5902,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D120" s="6">
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>97</v>
@@ -5877,24 +5928,24 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" ht="15">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" s="6">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F122" s="6">
         <v>410</v>
@@ -5906,21 +5957,21 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15">
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D123" s="6">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F123" s="6">
         <v>410</v>
@@ -5932,21 +5983,21 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15">
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D124" s="6">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F124" s="6">
         <v>410</v>
@@ -5955,27 +6006,27 @@
         <v>11</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" ht="15">
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D126" s="6">
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F126" s="6">
         <v>412</v>
@@ -5987,21 +6038,21 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15">
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D127" s="6">
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F127" s="6">
         <v>412</v>
@@ -6013,21 +6064,21 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15">
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D128" s="6">
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F128" s="6">
         <v>412</v>
@@ -6036,28 +6087,28 @@
         <v>11</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="6">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F130" s="6">
         <v>261</v>
@@ -6072,21 +6123,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D131" s="6">
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F131" s="6">
         <v>261</v>
@@ -6101,21 +6152,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D132" s="6">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F132" s="6">
         <v>261</v>
@@ -6127,21 +6178,21 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D133" s="6">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F133" s="6">
         <v>261</v>
@@ -6150,24 +6201,24 @@
         <v>47</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134" s="6">
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F134" s="6">
         <v>261</v>
@@ -6176,24 +6227,24 @@
         <v>48</v>
       </c>
       <c r="H134" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" s="6">
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F135" s="6">
         <v>261</v>
@@ -6202,24 +6253,24 @@
         <v>49</v>
       </c>
       <c r="H135" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" s="6">
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F136" s="6">
         <v>261</v>
@@ -6228,28 +6279,28 @@
         <v>50</v>
       </c>
       <c r="H136" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="6">
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F138" s="6">
         <v>274</v>
@@ -6258,24 +6309,24 @@
         <v>51</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="6">
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F139" s="6">
         <v>274</v>
@@ -6284,24 +6335,24 @@
         <v>52</v>
       </c>
       <c r="H139" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" s="6">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F140" s="6">
         <v>274</v>
@@ -6310,27 +6361,27 @@
         <v>53</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" s="6">
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F142" s="6">
         <v>22642</v>
@@ -6342,24 +6393,24 @@
         <v>442000</v>
       </c>
       <c r="I142" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" s="6">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F143" s="6">
         <v>22642</v>
@@ -6371,21 +6422,21 @@
         <v>39.940633333333331</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="6">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F144" s="6">
         <v>22642</v>
@@ -6397,21 +6448,21 @@
         <v>-70.878550000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15">
+    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="6">
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F145" s="6">
         <v>22642</v>
@@ -6423,21 +6474,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15">
+    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="6">
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F146" s="6">
         <v>22642</v>
@@ -6449,21 +6500,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15">
+    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="6">
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F147" s="6">
         <v>22642</v>
@@ -6475,21 +6526,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15">
+    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D148" s="6">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F148" s="6">
         <v>22642</v>
@@ -6501,27 +6552,27 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H149" s="20"/>
     </row>
-    <row r="150" spans="1:8" ht="15">
+    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="6">
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>56</v>
@@ -6530,24 +6581,24 @@
         <v>-4538.2809999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15">
+    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D151" s="6">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>57</v>
@@ -6556,24 +6607,24 @@
         <v>187.50919999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15">
+    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" s="6">
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>58</v>
@@ -6582,24 +6633,24 @@
         <v>13630.6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15">
+    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D153" s="6">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>59</v>
@@ -6608,24 +6659,24 @@
         <v>6.6158999999999996E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15">
+    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D154" s="6">
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>60</v>
@@ -6634,24 +6685,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15">
+    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D155" s="6">
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>54</v>
@@ -6660,24 +6711,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15">
+    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D156" s="6">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>61</v>
@@ -6686,24 +6737,24 @@
         <v>-0.38779999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15">
+    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D157" s="6">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>55</v>
@@ -6712,24 +6763,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15">
+    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" s="6">
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>62</v>
@@ -6738,24 +6789,24 @@
         <v>30.357050000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15">
+    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D159" s="6">
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G159" s="6" t="s">
         <v>63</v>
@@ -6764,24 +6815,24 @@
         <v>1.2041630000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15">
+    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D160" s="6">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G160" s="6" t="s">
         <v>64</v>
@@ -6790,24 +6841,24 @@
         <v>48.019649999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15">
+    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D161" s="6">
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G161" s="6" t="s">
         <v>65</v>
@@ -6816,24 +6867,24 @@
         <v>112.5149</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15">
+    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D162" s="6">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>66</v>
@@ -6842,24 +6893,24 @@
         <v>5.77224</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15">
+    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D163" s="6">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>67</v>
@@ -6868,24 +6919,24 @@
         <v>-3999.241</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15">
+    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D164" s="6">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G164" s="6" t="s">
         <v>68</v>
@@ -6894,24 +6945,24 @@
         <v>-10753.24</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15">
+    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D165" s="6">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G165" s="6" t="s">
         <v>69</v>
@@ -6920,24 +6971,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15">
+    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D166" s="6">
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>98</v>
@@ -6946,24 +6997,24 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15">
+    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D167" s="6">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>99</v>
@@ -6972,27 +7023,27 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H168" s="20"/>
     </row>
-    <row r="169" spans="1:8" ht="15">
+    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D169" s="6">
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G169" s="6" t="s">
         <v>70</v>
@@ -7001,24 +7052,24 @@
         <v>-3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15">
+    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D170" s="6">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>71</v>
@@ -7027,24 +7078,24 @@
         <v>1.0528999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15">
+    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D171" s="6">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>72</v>
@@ -7053,24 +7104,24 @@
         <v>-2.1103999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15">
+    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D172" s="6">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G172" s="6" t="s">
         <v>73</v>
@@ -7079,24 +7130,24 @@
         <v>14.5807</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15">
+    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D173" s="6">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>14</v>
@@ -7105,24 +7156,24 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15">
+    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D174" s="6">
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>74</v>
@@ -7131,24 +7182,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15">
+    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D175" s="6">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>15</v>
@@ -7157,24 +7208,24 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15">
+    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D176" s="6">
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>75</v>
@@ -7183,15 +7234,15 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H177" s="20"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I178" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K178" s="6">
         <v>2</v>
@@ -7200,194 +7251,221 @@
         <v>55077</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D180" s="6">
         <v>2</v>
       </c>
+      <c r="E180" t="s">
+        <v>225</v>
+      </c>
       <c r="F180" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I180" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D181" s="6">
         <v>2</v>
       </c>
+      <c r="E181" t="s">
+        <v>226</v>
+      </c>
       <c r="F181" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I181" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D182" s="6">
         <v>2</v>
       </c>
+      <c r="E182" t="s">
+        <v>227</v>
+      </c>
       <c r="F182" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:15" ht="15">
+    <row r="184" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D184" s="6">
         <v>2</v>
       </c>
+      <c r="E184" t="s">
+        <v>228</v>
+      </c>
       <c r="F184" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I184" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D185" s="6">
         <v>2</v>
       </c>
+      <c r="E185" t="s">
+        <v>229</v>
+      </c>
       <c r="F185" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I185" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D186" s="6">
         <v>2</v>
       </c>
+      <c r="E186" t="s">
+        <v>230</v>
+      </c>
       <c r="F186" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I186" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D187" s="6">
         <v>2</v>
       </c>
+      <c r="E187" t="s">
+        <v>231</v>
+      </c>
       <c r="F187" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I187" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D188" s="6">
         <v>2</v>
       </c>
+      <c r="E188" t="s">
+        <v>232</v>
+      </c>
       <c r="F188" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I188" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D189" s="6">
         <v>2</v>
       </c>
+      <c r="E189" t="s">
+        <v>233</v>
+      </c>
       <c r="F189" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I189" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I190" s="7"/>
     </row>
   </sheetData>
@@ -7409,7 +7487,7 @@
       <selection activeCell="A80" sqref="A80:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="25" width="9.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="21" bestFit="1" customWidth="1"/>
@@ -7418,7 +7496,7 @@
     <col min="40" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" customFormat="1" ht="14.45">
+    <row r="1" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-7.4231000000000005E-2</v>
       </c>
@@ -7534,7 +7612,7 @@
         <v>4.8051000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" customFormat="1" ht="14.45">
+    <row r="2" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-6.2197000000000002E-2</v>
       </c>
@@ -7650,7 +7728,7 @@
         <v>3.7963999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" customFormat="1" ht="14.45">
+    <row r="3" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.8746999999999999E-2</v>
       </c>
@@ -7766,7 +7844,7 @@
         <v>2.6828999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" customFormat="1" ht="14.45">
+    <row r="4" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.3734E-2</v>
       </c>
@@ -7882,7 +7960,7 @@
         <v>1.6361000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" customFormat="1" ht="14.45">
+    <row r="5" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.1427000000000002E-2</v>
       </c>
@@ -7998,7 +8076,7 @@
         <v>9.587E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" customFormat="1" ht="14.45">
+    <row r="6" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.5106E-2</v>
       </c>
@@ -8114,7 +8192,7 @@
         <v>5.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" customFormat="1" ht="14.45">
+    <row r="7" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.0352999999999999E-2</v>
       </c>
@@ -8230,7 +8308,7 @@
         <v>2.189E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" customFormat="1" ht="14.45">
+    <row r="8" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.5449999999999996E-3</v>
       </c>
@@ -8346,7 +8424,7 @@
         <v>1.2960000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" customFormat="1" ht="14.45">
+    <row r="9" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.5979999999999997E-3</v>
       </c>
@@ -8462,7 +8540,7 @@
         <v>3.8900000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" customFormat="1" ht="14.45">
+    <row r="10" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.0619999999999996E-3</v>
       </c>
@@ -8578,7 +8656,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" customFormat="1" ht="14.45">
+    <row r="11" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.2460000000000002E-3</v>
       </c>
@@ -8694,7 +8772,7 @@
         <v>-5.5599999999999996E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" customFormat="1" ht="14.45">
+    <row r="12" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.4589999999999998E-3</v>
       </c>
@@ -8810,7 +8888,7 @@
         <v>-5.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" customFormat="1" ht="14.45">
+    <row r="13" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.676E-3</v>
       </c>
@@ -8926,7 +9004,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" customFormat="1" ht="14.45">
+    <row r="14" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.165E-3</v>
       </c>
@@ -9042,7 +9120,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" customFormat="1" ht="14.45">
+    <row r="15" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.4369999999999999E-3</v>
       </c>
@@ -9158,7 +9236,7 @@
         <v>-7.3700000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" customFormat="1" ht="14.45">
+    <row r="16" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-8.3500000000000002E-4</v>
       </c>
@@ -9274,7 +9352,7 @@
         <v>-7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" customFormat="1" ht="14.45">
+    <row r="17" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.7299999999999997E-4</v>
       </c>
@@ -9390,7 +9468,7 @@
         <v>-8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" customFormat="1" ht="14.45">
+    <row r="18" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-9.3400000000000004E-4</v>
       </c>
@@ -9506,7 +9584,7 @@
         <v>-7.0100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" customFormat="1" ht="14.45">
+    <row r="19" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.3300000000000001E-4</v>
       </c>
@@ -9622,7 +9700,7 @@
         <v>-6.3299999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" customFormat="1" ht="14.45">
+    <row r="20" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-6.1799999999999995E-4</v>
       </c>
@@ -9738,7 +9816,7 @@
         <v>-5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" customFormat="1" ht="14.45">
+    <row r="21" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.7500000000000002E-4</v>
       </c>
@@ -9854,7 +9932,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" customFormat="1" ht="14.45">
+    <row r="22" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5.0100000000000003E-4</v>
       </c>
@@ -9970,7 +10048,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" customFormat="1" ht="14.45">
+    <row r="23" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.42E-4</v>
       </c>
@@ -10086,7 +10164,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" customFormat="1" ht="14.45">
+    <row r="24" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.37E-4</v>
       </c>
@@ -10202,7 +10280,7 @@
         <v>-5.31E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" customFormat="1" ht="14.45">
+    <row r="25" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -10318,7 +10396,7 @@
         <v>-4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:38" customFormat="1" ht="14.45">
+    <row r="26" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -10434,7 +10512,7 @@
         <v>-4.73E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:38" customFormat="1" ht="14.45">
+    <row r="27" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.12E-4</v>
       </c>
@@ -10550,7 +10628,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:38" customFormat="1" ht="14.45">
+    <row r="28" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-9.2999999999999997E-5</v>
       </c>
@@ -10666,7 +10744,7 @@
         <v>-4.9799999999999996E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:38" customFormat="1" ht="14.45">
+    <row r="29" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.4300000000000001E-4</v>
       </c>
@@ -10782,7 +10860,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38" customFormat="1" ht="14.45">
+    <row r="30" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.3000000000000001E-4</v>
       </c>
@@ -10898,7 +10976,7 @@
         <v>-4.55E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" customFormat="1" ht="14.45">
+    <row r="31" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.5099999999999998E-4</v>
       </c>
@@ -11014,7 +11092,7 @@
         <v>-4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" customFormat="1" ht="14.45">
+    <row r="32" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.21E-4</v>
       </c>
@@ -11130,7 +11208,7 @@
         <v>-4.15E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38" customFormat="1" ht="14.45">
+    <row r="33" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-4.46E-4</v>
       </c>
@@ -11246,7 +11324,7 @@
         <v>-3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38" customFormat="1" ht="14.45">
+    <row r="34" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-6.2500000000000001E-4</v>
       </c>
@@ -11362,7 +11440,7 @@
         <v>-4.4700000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38" customFormat="1" ht="14.45">
+    <row r="35" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.79E-4</v>
       </c>
@@ -11478,7 +11556,7 @@
         <v>-4.3600000000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" customFormat="1" ht="14.45">
+    <row r="36" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.8599999999999999E-4</v>
       </c>
@@ -11594,7 +11672,7 @@
         <v>-4.37E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" customFormat="1" ht="14.45">
+    <row r="37" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-9.1000000000000003E-5</v>
       </c>
@@ -11710,7 +11788,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" customFormat="1" ht="14.45">
+    <row r="38" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.6000000000000005E-5</v>
       </c>
@@ -11826,7 +11904,7 @@
         <v>-5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" customFormat="1" ht="15">
+    <row r="39" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.6200000000000001E-4</v>
       </c>
@@ -11942,7 +12020,7 @@
         <v>-5.4600000000000004E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" customFormat="1" ht="15">
+    <row r="40" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.8000000000000002E-4</v>
       </c>
@@ -12058,7 +12136,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" customFormat="1" ht="15">
+    <row r="41" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.9800000000000005E-4</v>
       </c>
@@ -12174,7 +12252,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" customFormat="1" ht="15">
+    <row r="42" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9.3899999999999995E-4</v>
       </c>
@@ -12290,7 +12368,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" customFormat="1" ht="15">
+    <row r="43" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.194E-3</v>
       </c>
@@ -12406,7 +12484,7 @@
         <v>-6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" customFormat="1" ht="15">
+    <row r="44" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.4729999999999999E-3</v>
       </c>
@@ -12522,7 +12600,7 @@
         <v>-6.29E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" customFormat="1" ht="15">
+    <row r="45" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.059E-3</v>
       </c>
@@ -12638,7 +12716,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" customFormat="1" ht="15">
+    <row r="46" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.6300000000000005E-4</v>
       </c>
@@ -12754,7 +12832,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" customFormat="1" ht="15">
+    <row r="47" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.7399999999999997E-4</v>
       </c>
@@ -12870,7 +12948,7 @@
         <v>-6.1899999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" customFormat="1" ht="15">
+    <row r="48" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.0699999999999996E-4</v>
       </c>
@@ -12986,7 +13064,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" customFormat="1" ht="15">
+    <row r="49" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.1399999999999998E-4</v>
       </c>
@@ -13102,7 +13180,7 @@
         <v>-4.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" customFormat="1" ht="15">
+    <row r="50" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.31E-4</v>
       </c>
@@ -13218,7 +13296,7 @@
         <v>-4.26E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" customFormat="1" ht="15">
+    <row r="51" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.8999999999999995E-5</v>
       </c>
@@ -13334,7 +13412,7 @@
         <v>-3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38" customFormat="1" ht="15">
+    <row r="52" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-9.6000000000000002E-5</v>
       </c>
@@ -13450,7 +13528,7 @@
         <v>-4.44E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" customFormat="1" ht="15">
+    <row r="53" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.3100000000000001E-4</v>
       </c>
@@ -13566,7 +13644,7 @@
         <v>-4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" customFormat="1" ht="15">
+    <row r="54" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5999999999999998E-4</v>
       </c>
@@ -13682,7 +13760,7 @@
         <v>-3.97E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" customFormat="1" ht="15">
+    <row r="55" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-4.06E-4</v>
       </c>
@@ -13798,7 +13876,7 @@
         <v>-3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" customFormat="1" ht="15">
+    <row r="56" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-4.4299999999999998E-4</v>
       </c>
@@ -13914,7 +13992,7 @@
         <v>-2.7399999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" customFormat="1" ht="15">
+    <row r="57" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-5.9500000000000004E-4</v>
       </c>
@@ -14030,7 +14108,7 @@
         <v>-2.7799999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" customFormat="1" ht="15">
+    <row r="58" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-7.54E-4</v>
       </c>
@@ -14146,7 +14224,7 @@
         <v>-2.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" customFormat="1" ht="15">
+    <row r="59" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-9.6599999999999995E-4</v>
       </c>
@@ -14262,7 +14340,7 @@
         <v>-2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" customFormat="1" ht="15">
+    <row r="60" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.0219999999999999E-3</v>
       </c>
@@ -14378,7 +14456,7 @@
         <v>-2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38" customFormat="1" ht="15">
+    <row r="61" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.176E-3</v>
       </c>
@@ -14494,7 +14572,7 @@
         <v>-2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38" customFormat="1" ht="15">
+    <row r="62" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.253E-3</v>
       </c>
@@ -14610,7 +14688,7 @@
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" customFormat="1" ht="15">
+    <row r="63" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.4250000000000001E-3</v>
       </c>
@@ -14726,7 +14804,7 @@
         <v>-2.4499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" customFormat="1" ht="15">
+    <row r="64" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.5790000000000001E-3</v>
       </c>
@@ -14842,7 +14920,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" customFormat="1" ht="15">
+    <row r="65" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.7129999999999999E-3</v>
       </c>
@@ -14958,7 +15036,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" customFormat="1" ht="15">
+    <row r="66" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.8760000000000001E-3</v>
       </c>
@@ -15074,7 +15152,7 @@
         <v>-3.5199999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" customFormat="1" ht="15">
+    <row r="67" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.854E-3</v>
       </c>
@@ -15190,7 +15268,7 @@
         <v>-3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" customFormat="1" ht="15">
+    <row r="68" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.6609999999999999E-3</v>
       </c>
@@ -15306,7 +15384,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" customFormat="1" ht="15">
+    <row r="69" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.4189999999999999E-3</v>
       </c>
@@ -15422,7 +15500,7 @@
         <v>-5.44E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" customFormat="1" ht="15">
+    <row r="70" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.2390000000000001E-3</v>
       </c>
@@ -15538,7 +15616,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" customFormat="1" ht="15">
+    <row r="71" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-8.9599999999999999E-4</v>
       </c>
@@ -15654,7 +15732,7 @@
         <v>-7.18E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" customFormat="1" ht="15">
+    <row r="72" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-8.43E-4</v>
       </c>
@@ -15770,7 +15848,7 @@
         <v>-7.9600000000000005E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39" customFormat="1" ht="15">
+    <row r="73" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-8.7000000000000001E-4</v>
       </c>
@@ -15886,7 +15964,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" customFormat="1" ht="15">
+    <row r="74" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.6900000000000003E-4</v>
       </c>
@@ -16002,7 +16080,7 @@
         <v>-8.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" customFormat="1" ht="15">
+    <row r="75" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.0280000000000001E-3</v>
       </c>
@@ -16118,7 +16196,7 @@
         <v>-8.8900000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" customFormat="1" ht="15">
+    <row r="76" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.0089999999999999E-3</v>
       </c>
@@ -16234,7 +16312,7 @@
         <v>-8.9099999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" customFormat="1" ht="15">
+    <row r="77" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-1.165E-3</v>
       </c>
@@ -16350,7 +16428,7 @@
         <v>-8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" customFormat="1" ht="15">
+    <row r="78" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.6329999999999999E-3</v>
       </c>
@@ -16466,7 +16544,7 @@
         <v>-9.01E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" customFormat="1" ht="15">
+    <row r="79" spans="1:39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-1.933E-3</v>
       </c>
@@ -16582,7 +16660,7 @@
         <v>-7.6599999999999997E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15">
+    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -16623,7 +16701,7 @@
       <c r="AL80" s="22"/>
       <c r="AM80" s="22"/>
     </row>
-    <row r="81" spans="1:39" ht="15">
+    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -16682,14 +16760,14 @@
       <selection sqref="A1:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="39" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.4035000000000001E-2</v>
       </c>
@@ -16805,7 +16883,7 @@
         <v>-8.2710000000000006E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="14.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.681E-2</v>
       </c>
@@ -16921,7 +16999,7 @@
         <v>-6.6369999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.5888000000000001E-2</v>
       </c>
@@ -17037,7 +17115,7 @@
         <v>-4.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-2.7458E-2</v>
       </c>
@@ -17153,7 +17231,7 @@
         <v>-2.63E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.6446999999999998E-2</v>
       </c>
@@ -17269,7 +17347,7 @@
         <v>-1.58E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.5444000000000001E-2</v>
       </c>
@@ -17385,7 +17463,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.5446E-2</v>
       </c>
@@ -17501,7 +17579,7 @@
         <v>4.3199999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.3514E-2</v>
       </c>
@@ -17617,7 +17695,7 @@
         <v>3.48E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.2970999999999998E-2</v>
       </c>
@@ -17733,7 +17811,7 @@
         <v>-1.66E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.1361000000000002E-2</v>
       </c>
@@ -17849,7 +17927,7 @@
         <v>1.379E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.9064000000000001E-2</v>
       </c>
@@ -17965,7 +18043,7 @@
         <v>1.389E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.8873999999999998E-2</v>
       </c>
@@ -18081,7 +18159,7 @@
         <v>-6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.8090999999999999E-2</v>
       </c>
@@ -18197,7 +18275,7 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.5424E-2</v>
       </c>
@@ -18313,7 +18391,7 @@
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.5226E-2</v>
       </c>
@@ -18429,7 +18507,7 @@
         <v>1.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.5327E-2</v>
       </c>
@@ -18545,7 +18623,7 @@
         <v>-4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="14.45">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.2775999999999999E-2</v>
       </c>
@@ -18661,7 +18739,7 @@
         <v>1.6019999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="14.45">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.1665999999999999E-2</v>
       </c>
@@ -18777,7 +18855,7 @@
         <v>1.704E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.45">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.1795999999999999E-2</v>
       </c>
@@ -18893,7 +18971,7 @@
         <v>-9.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.45">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.2052999999999999E-2</v>
       </c>
@@ -19009,7 +19087,7 @@
         <v>-3.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.45">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.0407E-2</v>
       </c>
@@ -19125,7 +19203,7 @@
         <v>1.931E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.45">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.4420000000000007E-3</v>
       </c>
@@ -19241,7 +19319,7 @@
         <v>1.0629999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.45">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.008E-2</v>
       </c>
@@ -19357,7 +19435,7 @@
         <v>-1.3929999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="14.45">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0071E-2</v>
       </c>
@@ -19473,7 +19551,7 @@
         <v>-6.2E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="14.45">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-7.8630000000000002E-3</v>
       </c>
@@ -19589,7 +19667,7 @@
         <v>1.99E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="14.45">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -19705,7 +19783,7 @@
         <v>1.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="14.45">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-8.3379999999999999E-3</v>
       </c>
@@ -19821,7 +19899,7 @@
         <v>-1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="14.45">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8.3309999999999999E-3</v>
       </c>
@@ -19937,7 +20015,7 @@
         <v>-1.735E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.45">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-6.5030000000000001E-3</v>
       </c>
@@ -20053,7 +20131,7 @@
         <v>1.469E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="14.45">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -20169,7 +20247,7 @@
         <v>1.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.45">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5.2709999999999996E-3</v>
       </c>
@@ -20285,7 +20363,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.45">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.1450000000000003E-3</v>
       </c>
@@ -20401,7 +20479,7 @@
         <v>-3.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="14.45">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5.1019999999999998E-3</v>
       </c>
@@ -20517,7 +20595,7 @@
         <v>-1.07E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="14.45">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.5929999999999998E-3</v>
       </c>
@@ -20633,7 +20711,7 @@
         <v>1.9380000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="14.45">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.4790000000000001E-3</v>
       </c>
@@ -20749,7 +20827,7 @@
         <v>1.341E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.45">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.8580000000000001E-3</v>
       </c>
@@ -20865,7 +20943,7 @@
         <v>-2.065E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.6419999999999998E-3</v>
       </c>
@@ -20981,7 +21059,7 @@
         <v>-3.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.8240000000000001E-3</v>
       </c>
@@ -21097,7 +21175,7 @@
         <v>-2.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.86E-4</v>
       </c>
@@ -21213,7 +21291,7 @@
         <v>1.111E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.0939999999999999E-3</v>
       </c>
@@ -21329,7 +21407,7 @@
         <v>2.2369999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9859999999999999E-3</v>
       </c>
@@ -21445,7 +21523,7 @@
         <v>-3.28E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -21561,7 +21639,7 @@
         <v>-3.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.4499999999999999E-4</v>
       </c>
@@ -21677,7 +21755,7 @@
         <v>-4.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.65E-4</v>
       </c>
@@ -21793,7 +21871,7 @@
         <v>-2.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.7100000000000002E-3</v>
       </c>
@@ -21909,7 +21987,7 @@
         <v>2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.3480000000000003E-3</v>
       </c>
@@ -22025,7 +22103,7 @@
         <v>1.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.2509999999999996E-3</v>
       </c>
@@ -22141,7 +22219,7 @@
         <v>-1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.64E-3</v>
       </c>
@@ -22257,7 +22335,7 @@
         <v>-3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.467E-3</v>
       </c>
@@ -22373,7 +22451,7 @@
         <v>-5.8459999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.572E-3</v>
       </c>
@@ -22489,7 +22567,7 @@
         <v>-3.98E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3.0560000000000001E-3</v>
       </c>
@@ -22605,7 +22683,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.8129999999999996E-3</v>
       </c>
@@ -22721,7 +22799,7 @@
         <v>2.1540000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.0800000000000003E-3</v>
       </c>
@@ -22837,7 +22915,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3.6779999999999998E-3</v>
       </c>
@@ -22953,7 +23031,7 @@
         <v>-2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.802E-3</v>
       </c>
@@ -23069,7 +23147,7 @@
         <v>-5.7460000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.023E-3</v>
       </c>
@@ -23185,7 +23263,7 @@
         <v>-5.9280000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.9189999999999999E-3</v>
       </c>
@@ -23301,7 +23379,7 @@
         <v>-2.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.9249999999999997E-3</v>
       </c>
@@ -23417,7 +23495,7 @@
         <v>7.5199999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.326E-3</v>
       </c>
@@ -23533,7 +23611,7 @@
         <v>2.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.4219999999999997E-3</v>
       </c>
@@ -23649,7 +23727,7 @@
         <v>1.0510000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.9500000000000004E-3</v>
       </c>
@@ -23765,7 +23843,7 @@
         <v>-2.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5639999999999999E-3</v>
       </c>
@@ -23881,7 +23959,7 @@
         <v>-5.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.4660000000000001E-3</v>
       </c>
@@ -23997,7 +24075,7 @@
         <v>-6.8580000000000004E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.9780000000000002E-3</v>
       </c>
@@ -24113,7 +24191,7 @@
         <v>-4.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3.5630000000000002E-3</v>
       </c>
@@ -24229,7 +24307,7 @@
         <v>-1.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.2139999999999999E-3</v>
       </c>
@@ -24345,7 +24423,7 @@
         <v>1.508E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.2519999999999997E-3</v>
       </c>
@@ -24461,7 +24539,7 @@
         <v>2.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.5970000000000004E-3</v>
       </c>
@@ -24577,7 +24655,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.4990000000000004E-3</v>
       </c>
@@ -24693,7 +24771,7 @@
         <v>-2.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.1910000000000003E-3</v>
       </c>
@@ -24809,7 +24887,7 @@
         <v>-5.6379999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.8349999999999998E-3</v>
       </c>
@@ -24925,7 +25003,7 @@
         <v>-7.6E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.8249999999999998E-3</v>
       </c>
@@ -25041,7 +25119,7 @@
         <v>-7.1180000000000002E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3.5379999999999999E-3</v>
       </c>
@@ -25157,7 +25235,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.6810000000000003E-3</v>
       </c>
@@ -25273,7 +25351,7 @@
         <v>-2.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.5960000000000003E-3</v>
       </c>
@@ -25389,7 +25467,7 @@
         <v>1.054E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7.4570000000000001E-3</v>
       </c>
@@ -25505,7 +25583,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7.8019999999999999E-3</v>
       </c>
@@ -25621,7 +25699,7 @@
         <v>1.843E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7.4700000000000001E-3</v>
       </c>
@@ -25737,7 +25815,7 @@
         <v>2.3900000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -25869,13 +25947,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="37" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-7.0541999999999994E-2</v>
       </c>
@@ -25994,7 +26072,7 @@
         <v>3.9338999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-6.1710000000000001E-2</v>
       </c>
@@ -26113,7 +26191,7 @@
         <v>3.1438000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5.1657000000000002E-2</v>
       </c>
@@ -26232,7 +26310,7 @@
         <v>2.2648999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.2470000000000001E-2</v>
       </c>
@@ -26351,7 +26429,7 @@
         <v>1.6175999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.6156000000000001E-2</v>
       </c>
@@ -26470,7 +26548,7 @@
         <v>1.1268E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-3.1882000000000001E-2</v>
       </c>
@@ -26589,7 +26667,7 @@
         <v>8.0440000000000008E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.8917999999999999E-2</v>
       </c>
@@ -26708,7 +26786,7 @@
         <v>6.202E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.7085999999999999E-2</v>
       </c>
@@ -26827,7 +26905,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.6117999999999999E-2</v>
       </c>
@@ -26946,7 +27024,7 @@
         <v>4.5310000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.5648000000000001E-2</v>
       </c>
@@ -27065,7 +27143,7 @@
         <v>4.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.4656999999999998E-2</v>
       </c>
@@ -27184,7 +27262,7 @@
         <v>3.607E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.3689000000000002E-2</v>
       </c>
@@ -27303,7 +27381,7 @@
         <v>3.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.2862E-2</v>
       </c>
@@ -27422,7 +27500,7 @@
         <v>3.522E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.1724E-2</v>
       </c>
@@ -27541,7 +27619,7 @@
         <v>3.5360000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.0976000000000002E-2</v>
       </c>
@@ -27660,7 +27738,7 @@
         <v>3.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.0219000000000001E-2</v>
       </c>
@@ -27779,7 +27857,7 @@
         <v>3.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.9193999999999999E-2</v>
       </c>
@@ -27898,7 +27976,7 @@
         <v>3.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="14.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.8610000000000002E-2</v>
       </c>
@@ -28017,7 +28095,7 @@
         <v>3.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.7901E-2</v>
       </c>
@@ -28136,7 +28214,7 @@
         <v>3.235E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.7233999999999999E-2</v>
       </c>
@@ -28255,7 +28333,7 @@
         <v>3.153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.6774000000000001E-2</v>
       </c>
@@ -28374,7 +28452,7 @@
         <v>2.9520000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.6125E-2</v>
       </c>
@@ -28493,7 +28571,7 @@
         <v>2.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.5709999999999998E-2</v>
       </c>
@@ -28612,7 +28690,7 @@
         <v>2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.519E-2</v>
       </c>
@@ -28731,7 +28809,7 @@
         <v>2.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="14.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.4655E-2</v>
       </c>
@@ -28850,7 +28928,7 @@
         <v>2.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="14.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.4319999999999999E-2</v>
       </c>
@@ -28969,7 +29047,7 @@
         <v>2.7810000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.3875999999999999E-2</v>
       </c>
@@ -29088,7 +29166,7 @@
         <v>2.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="14.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.3398999999999999E-2</v>
       </c>
@@ -29207,7 +29285,7 @@
         <v>2.5079999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="14.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.3069000000000001E-2</v>
       </c>
@@ -29326,7 +29404,7 @@
         <v>2.4190000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="14.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.2503E-2</v>
       </c>
@@ -29445,7 +29523,7 @@
         <v>2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2284E-2</v>
       </c>
@@ -29564,7 +29642,7 @@
         <v>2.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1789000000000001E-2</v>
       </c>
@@ -29683,7 +29761,7 @@
         <v>2.2529999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="14.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1291000000000001E-2</v>
       </c>
@@ -29802,7 +29880,7 @@
         <v>2.091E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="14.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.0972000000000001E-2</v>
       </c>
@@ -29921,7 +29999,7 @@
         <v>1.9859999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="14.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.0677000000000001E-2</v>
       </c>
@@ -30040,7 +30118,7 @@
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="14.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.0300999999999999E-2</v>
       </c>
@@ -30159,7 +30237,7 @@
         <v>1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.0075000000000001E-2</v>
       </c>
@@ -30278,7 +30356,7 @@
         <v>1.609E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-9.7300000000000008E-3</v>
       </c>
@@ -30397,7 +30475,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9.3600000000000003E-3</v>
       </c>
@@ -30516,7 +30594,7 @@
         <v>1.4430000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.4730000000000005E-3</v>
       </c>
@@ -30635,7 +30713,7 @@
         <v>1.4220000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-9.5709999999999996E-3</v>
       </c>
@@ -30754,7 +30832,7 @@
         <v>1.366E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-9.6869999999999994E-3</v>
       </c>
@@ -30873,7 +30951,7 @@
         <v>1.4159999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-9.9299999999999996E-3</v>
       </c>
@@ -30992,7 +31070,7 @@
         <v>1.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-9.9539999999999993E-3</v>
       </c>
@@ -31111,7 +31189,7 @@
         <v>1.603E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.0066E-2</v>
       </c>
@@ -31230,7 +31308,7 @@
         <v>1.761E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-9.613E-3</v>
       </c>
@@ -31349,7 +31427,7 @@
         <v>1.9559999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-9.9059999999999999E-3</v>
       </c>
@@ -31468,7 +31546,7 @@
         <v>1.923E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.0269E-2</v>
       </c>
@@ -31587,7 +31665,7 @@
         <v>1.7819999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1.0494E-2</v>
       </c>
@@ -31706,7 +31784,7 @@
         <v>1.673E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.0628E-2</v>
       </c>
@@ -31825,7 +31903,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.0729000000000001E-2</v>
       </c>
@@ -31944,7 +32022,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1.0631E-2</v>
       </c>
@@ -32063,7 +32141,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.0574E-2</v>
       </c>
@@ -32182,7 +32260,7 @@
         <v>1.462E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.0762000000000001E-2</v>
       </c>
@@ -32301,7 +32379,7 @@
         <v>1.493E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1.0592000000000001E-2</v>
       </c>
@@ -32420,7 +32498,7 @@
         <v>1.5020000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.0485E-2</v>
       </c>
@@ -32539,7 +32617,7 @@
         <v>1.573E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1.0316000000000001E-2</v>
       </c>
@@ -32658,7 +32736,7 @@
         <v>1.58E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-9.9340000000000001E-3</v>
       </c>
@@ -32777,7 +32855,7 @@
         <v>1.627E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -32896,7 +32974,7 @@
         <v>1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-9.8539999999999999E-3</v>
       </c>
@@ -33015,7 +33093,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-9.8270000000000007E-3</v>
       </c>
@@ -33134,7 +33212,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-9.9989999999999992E-3</v>
       </c>
@@ -33253,7 +33331,7 @@
         <v>1.7210000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-9.9190000000000007E-3</v>
       </c>
@@ -33372,7 +33450,7 @@
         <v>1.761E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.001E-2</v>
       </c>
@@ -33491,7 +33569,7 @@
         <v>1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.0089000000000001E-2</v>
       </c>
@@ -33610,7 +33688,7 @@
         <v>1.856E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0057E-2</v>
       </c>
@@ -33729,7 +33807,7 @@
         <v>1.818E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.0146000000000001E-2</v>
       </c>
@@ -33848,7 +33926,7 @@
         <v>1.745E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.0227999999999999E-2</v>
       </c>
@@ -33967,7 +34045,7 @@
         <v>1.737E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.0244E-2</v>
       </c>
@@ -34086,7 +34164,7 @@
         <v>1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.0130999999999999E-2</v>
       </c>
@@ -34205,7 +34283,7 @@
         <v>1.606E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.9909999999999999E-3</v>
       </c>
@@ -34324,7 +34402,7 @@
         <v>1.506E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.809E-3</v>
       </c>
@@ -34443,7 +34521,7 @@
         <v>1.39E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.5949999999999994E-3</v>
       </c>
@@ -34562,7 +34640,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.0900000000000009E-3</v>
       </c>
@@ -34681,7 +34759,7 @@
         <v>1.1720000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-8.7760000000000008E-3</v>
       </c>
@@ -34800,7 +34878,7 @@
         <v>1.034E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-8.6680000000000004E-3</v>
       </c>
@@ -34919,7 +34997,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-8.4499999999999992E-3</v>
       </c>
@@ -35038,7 +35116,7 @@
         <v>7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-8.1530000000000005E-3</v>
       </c>
@@ -35157,7 +35235,7 @@
         <v>7.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-8.0400000000000003E-3</v>
       </c>
@@ -35276,7 +35354,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-8.0239999999999999E-3</v>
       </c>
@@ -35395,7 +35473,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-7.9559999999999995E-3</v>
       </c>
@@ -35514,7 +35592,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-8.1939999999999999E-3</v>
       </c>
@@ -35633,7 +35711,7 @@
         <v>6.8400000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.3949999999999997E-3</v>
       </c>
@@ -35752,7 +35830,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6789999999999992E-3</v>
       </c>
@@ -35871,7 +35949,7 @@
         <v>9.1200000000000005E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-9.0480000000000005E-3</v>
       </c>
@@ -35990,7 +36068,7 @@
         <v>9.859999999999999E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-9.4400000000000005E-3</v>
       </c>
@@ -36109,7 +36187,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-9.6019999999999994E-3</v>
       </c>
@@ -36228,7 +36306,7 @@
         <v>1.353E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-9.7890000000000008E-3</v>
       </c>
@@ -36365,14 +36443,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="37" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>7.1572999999999998E-2</v>
       </c>
@@ -36491,7 +36569,7 @@
         <v>-2.3380000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.2651999999999999E-2</v>
       </c>
@@ -36610,7 +36688,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.4314000000000001E-2</v>
       </c>
@@ -36729,7 +36807,7 @@
         <v>-1.6813999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7247999999999998E-2</v>
       </c>
@@ -36848,7 +36926,7 @@
         <v>-1.4808E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.1251000000000003E-2</v>
       </c>
@@ -36967,7 +37045,7 @@
         <v>-1.2588E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.6795000000000001E-2</v>
       </c>
@@ -37086,7 +37164,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.2614999999999998E-2</v>
       </c>
@@ -37205,7 +37283,7 @@
         <v>-9.7509999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.9378000000000001E-2</v>
       </c>
@@ -37324,7 +37402,7 @@
         <v>-8.7510000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.5205000000000002E-2</v>
       </c>
@@ -37443,7 +37521,7 @@
         <v>-7.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.3598000000000001E-2</v>
       </c>
@@ -37562,7 +37640,7 @@
         <v>-6.509E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.0837000000000001E-2</v>
       </c>
@@ -37681,7 +37759,7 @@
         <v>-5.8510000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.8676999999999999E-2</v>
       </c>
@@ -37800,7 +37878,7 @@
         <v>-5.0020000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.7049999999999999E-2</v>
       </c>
@@ -37919,7 +37997,7 @@
         <v>-4.3670000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.5356E-2</v>
       </c>
@@ -38038,7 +38116,7 @@
         <v>-3.7940000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.3958E-2</v>
       </c>
@@ -38157,7 +38235,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.2519000000000001E-2</v>
       </c>
@@ -38276,7 +38354,7 @@
         <v>-2.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.1802E-2</v>
       </c>
@@ -38395,7 +38473,7 @@
         <v>-2.2980000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="14.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.1043000000000001E-2</v>
       </c>
@@ -38514,7 +38592,7 @@
         <v>-2.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0104E-2</v>
       </c>
@@ -38633,7 +38711,7 @@
         <v>-1.7619999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.4249999999999994E-3</v>
       </c>
@@ -38752,7 +38830,7 @@
         <v>-1.516E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.763E-3</v>
       </c>
@@ -38871,7 +38949,7 @@
         <v>-1.268E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7.7510000000000001E-3</v>
       </c>
@@ -38990,7 +39068,7 @@
         <v>-1.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7.352E-3</v>
       </c>
@@ -39109,7 +39187,7 @@
         <v>-7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.7600000000000004E-3</v>
       </c>
@@ -39228,7 +39306,7 @@
         <v>-6.6699999999999995E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="14.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.8780000000000004E-3</v>
       </c>
@@ -39347,7 +39425,7 @@
         <v>-5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="14.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.8640000000000003E-3</v>
       </c>
@@ -39466,7 +39544,7 @@
         <v>-4.2499999999999998E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.4489999999999999E-3</v>
       </c>
@@ -39585,7 +39663,7 @@
         <v>-2.05E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="14.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.9259999999999998E-3</v>
       </c>
@@ -39704,7 +39782,7 @@
         <v>-1.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="14.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.594E-3</v>
       </c>
@@ -39823,7 +39901,7 @@
         <v>-1.16E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="14.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.4869999999999997E-3</v>
       </c>
@@ -39942,7 +40020,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.4900000000000001E-3</v>
       </c>
@@ -40061,7 +40139,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.4079999999999996E-3</v>
       </c>
@@ -40180,7 +40258,7 @@
         <v>-2.8E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="14.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.4019999999999997E-3</v>
       </c>
@@ -40299,7 +40377,7 @@
         <v>-9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="14.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.2719999999999998E-3</v>
       </c>
@@ -40418,7 +40496,7 @@
         <v>-1.4E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="14.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.4060000000000002E-3</v>
       </c>
@@ -40537,7 +40615,7 @@
         <v>-9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="14.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.3759999999999997E-3</v>
       </c>
@@ -40656,7 +40734,7 @@
         <v>-2.04E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="14.45">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.47E-3</v>
       </c>
@@ -40775,7 +40853,7 @@
         <v>-2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="14.45">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.5999999999999999E-3</v>
       </c>
@@ -40894,7 +40972,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.45">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.7210000000000004E-3</v>
       </c>
@@ -41013,7 +41091,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.8040000000000001E-3</v>
       </c>
@@ -41132,7 +41210,7 @@
         <v>-5.8799999999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.9699999999999996E-3</v>
       </c>
@@ -41251,7 +41329,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.0530000000000002E-3</v>
       </c>
@@ -41370,7 +41448,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.1289999999999999E-3</v>
       </c>
@@ -41489,7 +41567,7 @@
         <v>-8.4500000000000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.195E-3</v>
       </c>
@@ -41608,7 +41686,7 @@
         <v>-9.01E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.3629999999999997E-3</v>
       </c>
@@ -41727,7 +41805,7 @@
         <v>-9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.3049999999999998E-3</v>
       </c>
@@ -41846,7 +41924,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.6100000000000004E-3</v>
       </c>
@@ -41965,7 +42043,7 @@
         <v>-9.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.6410000000000002E-3</v>
       </c>
@@ -42084,7 +42162,7 @@
         <v>-1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -42203,7 +42281,7 @@
         <v>-1.3129999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.9480000000000002E-3</v>
       </c>
@@ -42322,7 +42400,7 @@
         <v>-1.438E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.8970000000000003E-3</v>
       </c>
@@ -42441,7 +42519,7 @@
         <v>-1.629E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.9259999999999998E-3</v>
       </c>
@@ -42560,7 +42638,7 @@
         <v>-1.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.9630000000000004E-3</v>
       </c>
@@ -42679,7 +42757,7 @@
         <v>-1.6509999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.9350000000000002E-3</v>
       </c>
@@ -42798,7 +42876,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.9199999999999999E-3</v>
       </c>
@@ -42917,7 +42995,7 @@
         <v>-1.48E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.8719999999999996E-3</v>
       </c>
@@ -43036,7 +43114,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.5929999999999999E-3</v>
       </c>
@@ -43155,7 +43233,7 @@
         <v>-1.387E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -43274,7 +43352,7 @@
         <v>-1.235E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.424E-3</v>
       </c>
@@ -43393,7 +43471,7 @@
         <v>-1.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.3379999999999999E-3</v>
       </c>
@@ -43512,7 +43590,7 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.1489999999999999E-3</v>
       </c>
@@ -43631,7 +43709,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.0509999999999999E-3</v>
       </c>
@@ -43750,7 +43828,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.999E-3</v>
       </c>
@@ -43869,7 +43947,7 @@
         <v>-7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.7819999999999998E-3</v>
       </c>
@@ -43988,7 +44066,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.6860000000000001E-3</v>
       </c>
@@ -44107,7 +44185,7 @@
         <v>-6.1300000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.4910000000000002E-3</v>
       </c>
@@ -44226,7 +44304,7 @@
         <v>-4.57E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.3439999999999998E-3</v>
       </c>
@@ -44345,7 +44423,7 @@
         <v>-4.0700000000000003E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.0090000000000004E-3</v>
       </c>
@@ -44464,7 +44542,7 @@
         <v>-4.2299999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.9750000000000002E-3</v>
       </c>
@@ -44583,7 +44661,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.6459999999999999E-3</v>
       </c>
@@ -44702,7 +44780,7 @@
         <v>-2.43E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.9090000000000001E-3</v>
       </c>
@@ -44821,7 +44899,7 @@
         <v>-2.14E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.9649999999999998E-3</v>
       </c>
@@ -44940,7 +45018,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0959999999999998E-3</v>
       </c>
@@ -45059,7 +45137,7 @@
         <v>-2.23E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.2560000000000002E-3</v>
       </c>
@@ -45178,7 +45256,7 @@
         <v>-2.12E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.7390000000000001E-3</v>
       </c>
@@ -45297,7 +45375,7 @@
         <v>-1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.7320000000000001E-3</v>
       </c>
@@ -45416,7 +45494,7 @@
         <v>-3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.8240000000000001E-3</v>
       </c>
@@ -45535,7 +45613,7 @@
         <v>-2.92E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.728E-3</v>
       </c>
@@ -45654,7 +45732,7 @@
         <v>-3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.6800000000000001E-3</v>
       </c>
@@ -45773,7 +45851,7 @@
         <v>-4.84E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3.8670000000000002E-3</v>
       </c>
@@ -45892,7 +45970,7 @@
         <v>-3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.8560000000000001E-3</v>
       </c>
@@ -46011,7 +46089,7 @@
         <v>-5.5599999999999996E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.9820000000000003E-3</v>
       </c>
@@ -46130,7 +46208,7 @@
         <v>-6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.7190000000000001E-3</v>
       </c>
@@ -46249,7 +46327,7 @@
         <v>-5.1000000000000004E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.9360000000000003E-3</v>
       </c>
@@ -46368,7 +46446,7 @@
         <v>-6.2299999999999996E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4.1279999999999997E-3</v>
       </c>
@@ -46487,7 +46565,7 @@
         <v>-6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3.4510000000000001E-3</v>
       </c>
@@ -46606,7 +46684,7 @@
         <v>-5.5500000000000005E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4.1050000000000001E-3</v>
       </c>
@@ -46725,7 +46803,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3.437E-3</v>
       </c>
